--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H2">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I2">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J2">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>3420.855910936367</v>
+        <v>2878.05000581959</v>
       </c>
       <c r="R2">
-        <v>13683.42364374547</v>
+        <v>11512.20002327836</v>
       </c>
       <c r="S2">
-        <v>0.01343909659183136</v>
+        <v>0.01202488326829807</v>
       </c>
       <c r="T2">
-        <v>0.007267007601811753</v>
+        <v>0.006674466056301663</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H3">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I3">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J3">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>2468.601236445864</v>
+        <v>1695.856682651564</v>
       </c>
       <c r="R3">
-        <v>14811.60741867518</v>
+        <v>10175.14009590938</v>
       </c>
       <c r="S3">
-        <v>0.009698090573545762</v>
+        <v>0.007085519225660932</v>
       </c>
       <c r="T3">
-        <v>0.007866164675516941</v>
+        <v>0.005899274426342123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H4">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I4">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J4">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>1757.056997530341</v>
+        <v>1108.248758012894</v>
       </c>
       <c r="R4">
-        <v>10542.34198518205</v>
+        <v>6649.492548077364</v>
       </c>
       <c r="S4">
-        <v>0.006902734088177351</v>
+        <v>0.004630413620470199</v>
       </c>
       <c r="T4">
-        <v>0.005598838517452119</v>
+        <v>0.003855198156219534</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H5">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I5">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J5">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>2908.093032225089</v>
+        <v>2456.585661853133</v>
       </c>
       <c r="R5">
-        <v>11632.37212890036</v>
+        <v>9826.342647412534</v>
       </c>
       <c r="S5">
-        <v>0.01142466802917958</v>
+        <v>0.01026394807686688</v>
       </c>
       <c r="T5">
-        <v>0.006177732918943929</v>
+        <v>0.005697050982881321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H6">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I6">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J6">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>2530.313103771492</v>
+        <v>854.6410055269578</v>
       </c>
       <c r="R6">
-        <v>15181.87862262895</v>
+        <v>5127.846033161747</v>
       </c>
       <c r="S6">
-        <v>0.009940530409494419</v>
+        <v>0.003570806034287773</v>
       </c>
       <c r="T6">
-        <v>0.008062808711682112</v>
+        <v>0.002972988153530421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.785713</v>
+        <v>14.2791755</v>
       </c>
       <c r="H7">
-        <v>41.571426</v>
+        <v>28.558351</v>
       </c>
       <c r="I7">
-        <v>0.05790803399871285</v>
+        <v>0.04272201646348869</v>
       </c>
       <c r="J7">
-        <v>0.04024709532822477</v>
+        <v>0.02938381530247614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>1655.284839396955</v>
+        <v>1231.756624532174</v>
       </c>
       <c r="R7">
-        <v>9931.709036381731</v>
+        <v>7390.539747193042</v>
       </c>
       <c r="S7">
-        <v>0.006502914306484375</v>
+        <v>0.005146446237904844</v>
       </c>
       <c r="T7">
-        <v>0.005274542902817916</v>
+        <v>0.004284837527201075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J8">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>49878.24037615579</v>
+        <v>61085.26646166905</v>
       </c>
       <c r="R8">
-        <v>299269.4422569348</v>
+        <v>366511.5987700143</v>
       </c>
       <c r="S8">
-        <v>0.1959505187291735</v>
+        <v>0.2552225281455023</v>
       </c>
       <c r="T8">
-        <v>0.1589363428695114</v>
+        <v>0.2124936346037083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J9">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>35993.76561599136</v>
@@ -1013,10 +1013,10 @@
         <v>323943.8905439223</v>
       </c>
       <c r="S9">
-        <v>0.1414042875265798</v>
+        <v>0.1503868345037742</v>
       </c>
       <c r="T9">
-        <v>0.1720404758657889</v>
+        <v>0.1878140144550744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J10">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>25619.00108018176</v>
+        <v>23522.06200453176</v>
       </c>
       <c r="R10">
-        <v>230571.0097216358</v>
+        <v>211698.5580407859</v>
       </c>
       <c r="S10">
-        <v>0.1006462239470802</v>
+        <v>0.09827836530366879</v>
       </c>
       <c r="T10">
-        <v>0.1224519041453795</v>
+        <v>0.1227371689993322</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J11">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>42401.83365625683</v>
+        <v>52139.8827111348</v>
       </c>
       <c r="R11">
-        <v>254411.001937541</v>
+        <v>312839.2962668088</v>
       </c>
       <c r="S11">
-        <v>0.1665788776298451</v>
+        <v>0.2178475015918297</v>
       </c>
       <c r="T11">
-        <v>0.1351128732983227</v>
+        <v>0.1813758673223173</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J12">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>36893.56362931563</v>
+        <v>18139.35596883979</v>
       </c>
       <c r="R12">
-        <v>332042.0726638407</v>
+        <v>163254.2037195582</v>
       </c>
       <c r="S12">
-        <v>0.1449392135009664</v>
+        <v>0.07578868944123461</v>
       </c>
       <c r="T12">
-        <v>0.176341267287474</v>
+        <v>0.09465042642339783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8443357202694322</v>
+        <v>0.9067548354528507</v>
       </c>
       <c r="J13">
-        <v>0.880242115199365</v>
+        <v>0.9354866231212752</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>24135.09871798385</v>
+        <v>26143.45875621676</v>
       </c>
       <c r="R13">
-        <v>217215.8884618547</v>
+        <v>235291.1288059508</v>
       </c>
       <c r="S13">
-        <v>0.09481659893578709</v>
+        <v>0.1092309164668412</v>
       </c>
       <c r="T13">
-        <v>0.1153592517328885</v>
+        <v>0.1364155113174451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H14">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I14">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J14">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>33.2342402729585</v>
+        <v>45.94698595003916</v>
       </c>
       <c r="R14">
-        <v>199.405441637751</v>
+        <v>275.681915700235</v>
       </c>
       <c r="S14">
-        <v>0.0001305632791362341</v>
+        <v>0.0001919727389941627</v>
       </c>
       <c r="T14">
-        <v>0.0001059004601444555</v>
+        <v>0.0001598330106284449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H15">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I15">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J15">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>23.98291210333599</v>
+        <v>27.07371415142666</v>
       </c>
       <c r="R15">
-        <v>215.8462089300239</v>
+        <v>243.66342736284</v>
       </c>
       <c r="S15">
-        <v>9.421872206886099E-05</v>
+        <v>0.000113117649676648</v>
       </c>
       <c r="T15">
-        <v>0.0001146318408283515</v>
+        <v>0.0001412695463774845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H16">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I16">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J16">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>17.070129800709</v>
+        <v>17.69277462538944</v>
       </c>
       <c r="R16">
-        <v>153.631168206381</v>
+        <v>159.234971628505</v>
       </c>
       <c r="S16">
-        <v>6.706132301375805E-05</v>
+        <v>7.392281201939289E-05</v>
       </c>
       <c r="T16">
-        <v>8.159060892200776E-05</v>
+        <v>9.232018301988779E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H17">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I17">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J17">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>28.2526552083365</v>
+        <v>39.21846620524249</v>
       </c>
       <c r="R17">
-        <v>169.515931250019</v>
+        <v>235.310797231455</v>
       </c>
       <c r="S17">
-        <v>0.0001109927375504722</v>
+        <v>0.0001638600709251525</v>
       </c>
       <c r="T17">
-        <v>9.00267062611309E-05</v>
+        <v>0.0001364269145451638</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H18">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I18">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J18">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>24.582454171108</v>
+        <v>13.64402223514944</v>
       </c>
       <c r="R18">
-        <v>221.242087539972</v>
+        <v>122.796200116345</v>
       </c>
       <c r="S18">
-        <v>9.657406937650271E-05</v>
+        <v>5.700657540903753E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001174974899449649</v>
+        <v>7.119395666007297E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.201937</v>
+        <v>0.2279616666666666</v>
       </c>
       <c r="H19">
-        <v>0.605811</v>
+        <v>0.683885</v>
       </c>
       <c r="I19">
-        <v>0.000562587131920761</v>
+        <v>0.0006820409257087465</v>
       </c>
       <c r="J19">
-        <v>0.0005865118282901139</v>
+        <v>0.0007036523407158168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>16.08139468746167</v>
+        <v>19.66453126485222</v>
       </c>
       <c r="R19">
-        <v>144.732552187155</v>
+        <v>176.98078138367</v>
       </c>
       <c r="S19">
-        <v>6.317700077493302E-05</v>
+        <v>8.216107868435293E-05</v>
       </c>
       <c r="T19">
-        <v>7.686472218920334E-05</v>
+        <v>0.0001026087294847629</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H20">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I20">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J20">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>3808.288086306769</v>
+        <v>3329.109615495486</v>
       </c>
       <c r="R20">
-        <v>15233.15234522708</v>
+        <v>13316.43846198194</v>
       </c>
       <c r="S20">
-        <v>0.01496115380883966</v>
+        <v>0.01390947149380812</v>
       </c>
       <c r="T20">
-        <v>0.008090039216385814</v>
+        <v>0.007720515307726362</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H21">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I21">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J21">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>2748.184934812304</v>
+        <v>1961.638184639484</v>
       </c>
       <c r="R21">
-        <v>16489.10960887382</v>
+        <v>11769.8291078369</v>
       </c>
       <c r="S21">
-        <v>0.01079645672098737</v>
+        <v>0.008195990388363172</v>
       </c>
       <c r="T21">
-        <v>0.008757054374295031</v>
+        <v>0.006823832517666567</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H22">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I22">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J22">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>1956.054100163826</v>
+        <v>1281.937975087751</v>
       </c>
       <c r="R22">
-        <v>11736.32460098296</v>
+        <v>7691.627850526504</v>
       </c>
       <c r="S22">
-        <v>0.007684509571686085</v>
+        <v>0.005356110726519077</v>
       </c>
       <c r="T22">
-        <v>0.006232940111567588</v>
+        <v>0.004459400366761882</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H23">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I23">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J23">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>3237.451777225861</v>
+        <v>2841.591678958568</v>
       </c>
       <c r="R23">
-        <v>12949.80710890345</v>
+        <v>11366.36671583427</v>
       </c>
       <c r="S23">
-        <v>0.01271857929076738</v>
+        <v>0.01187255543390507</v>
       </c>
       <c r="T23">
-        <v>0.006877397729727687</v>
+        <v>0.006589915800186794</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H24">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I24">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J24">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>2816.886036302312</v>
+        <v>988.5837923397345</v>
       </c>
       <c r="R24">
-        <v>16901.31621781387</v>
+        <v>5931.502754038407</v>
       </c>
       <c r="S24">
-        <v>0.01106635430303335</v>
+        <v>0.004130437163975357</v>
       </c>
       <c r="T24">
-        <v>0.008975969511228147</v>
+        <v>0.003438926852785444</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.139818</v>
+        <v>16.5170655</v>
       </c>
       <c r="H25">
-        <v>46.279636</v>
+        <v>33.034131</v>
       </c>
       <c r="I25">
-        <v>0.06446646152903332</v>
+        <v>0.04941758326449038</v>
       </c>
       <c r="J25">
-        <v>0.04480531704270965</v>
+        <v>0.03398896539866049</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1842.755642868964</v>
+        <v>1424.802492794967</v>
       </c>
       <c r="R25">
-        <v>11056.53385721378</v>
+        <v>8548.814956769802</v>
       </c>
       <c r="S25">
-        <v>0.007239407833719473</v>
+        <v>0.005953018057919582</v>
       </c>
       <c r="T25">
-        <v>0.00587191609950538</v>
+        <v>0.004956374553533443</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H26">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I26">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J26">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>1859.245388833738</v>
+        <v>10.91720031140567</v>
       </c>
       <c r="R26">
-        <v>11155.47233300243</v>
+        <v>65.503201868434</v>
       </c>
       <c r="S26">
-        <v>0.00730418907401869</v>
+        <v>4.561354357840495E-05</v>
       </c>
       <c r="T26">
-        <v>0.005924460453490678</v>
+        <v>3.797700670296692E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H27">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I27">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J27">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>1341.692133555816</v>
+        <v>6.432830238010666</v>
       </c>
       <c r="R27">
-        <v>12075.22920200234</v>
+        <v>57.895472142096</v>
       </c>
       <c r="S27">
-        <v>0.005270941147129862</v>
+        <v>2.687723720590047E-05</v>
       </c>
       <c r="T27">
-        <v>0.006412925937923446</v>
+        <v>3.356624822749874E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H28">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I28">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J28">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>954.9657178288288</v>
+        <v>4.203878897735778</v>
       </c>
       <c r="R28">
-        <v>8594.691460459459</v>
+        <v>37.83491007962201</v>
       </c>
       <c r="S28">
-        <v>0.003751656561376849</v>
+        <v>1.756437619816085E-05</v>
       </c>
       <c r="T28">
-        <v>0.004564478145565136</v>
+        <v>2.193567020717467E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H29">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I29">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J29">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>1580.557235158156</v>
+        <v>9.318475251767</v>
       </c>
       <c r="R29">
-        <v>9483.343410948937</v>
+        <v>55.91085151060199</v>
       </c>
       <c r="S29">
-        <v>0.006209341143045733</v>
+        <v>3.893385344745351E-05</v>
       </c>
       <c r="T29">
-        <v>0.005036424395838815</v>
+        <v>3.241561819911512E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H30">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I30">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J30">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>1375.232717476548</v>
+        <v>3.241878019079778</v>
       </c>
       <c r="R30">
-        <v>12377.09445728893</v>
+        <v>29.176902171718</v>
       </c>
       <c r="S30">
-        <v>0.005402707920941088</v>
+        <v>1.354500605294186E-05</v>
       </c>
       <c r="T30">
-        <v>0.006573240868017216</v>
+        <v>1.69159884973671E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>11.297097</v>
+        <v>0.05416466666666667</v>
       </c>
       <c r="H31">
-        <v>33.891291</v>
+        <v>0.162494</v>
       </c>
       <c r="I31">
-        <v>0.03147318916424743</v>
+        <v>0.0001620558400639246</v>
       </c>
       <c r="J31">
-        <v>0.03281162449596042</v>
+        <v>0.0001671908046707794</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>899.652246391395</v>
+        <v>4.672376705660889</v>
       </c>
       <c r="R31">
-        <v>8096.870217522555</v>
+        <v>42.051390350948</v>
       </c>
       <c r="S31">
-        <v>0.003534353317735201</v>
+        <v>1.952182358106296E-05</v>
       </c>
       <c r="T31">
-        <v>0.004300094695125124</v>
+        <v>2.438027283665683E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H32">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I32">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J32">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>74.07919184291899</v>
+        <v>17.61429339940416</v>
       </c>
       <c r="R32">
-        <v>444.4751510575139</v>
+        <v>105.685760396425</v>
       </c>
       <c r="S32">
-        <v>0.0002910258252734436</v>
+        <v>7.359490681297966E-05</v>
       </c>
       <c r="T32">
-        <v>0.0002360523495907238</v>
+        <v>6.127378076944597E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H33">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I33">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J33">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>53.45796179070398</v>
+        <v>10.37901256446666</v>
       </c>
       <c r="R33">
-        <v>481.1216561163358</v>
+        <v>93.4111130802</v>
       </c>
       <c r="S33">
-        <v>0.0002100137307189448</v>
+        <v>4.336492217840016E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002555146155978148</v>
+        <v>5.415726813940503E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H34">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I34">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J34">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>38.04935542092599</v>
+        <v>6.782723977586111</v>
       </c>
       <c r="R34">
-        <v>342.4441987883339</v>
+        <v>61.044515798275</v>
       </c>
       <c r="S34">
-        <v>0.0001494798308002334</v>
+        <v>2.833914070521262E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001818656398122003</v>
+        <v>3.539197962119228E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H35">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I35">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J35">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>62.97522820021099</v>
+        <v>15.0348397425875</v>
       </c>
       <c r="R35">
-        <v>377.851369201266</v>
+        <v>90.20903845552499</v>
       </c>
       <c r="S35">
-        <v>0.0002474030466964619</v>
+        <v>6.28175995888225E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002006697186194096</v>
+        <v>5.230079080675597E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H36">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I36">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J36">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>54.79434232751199</v>
+        <v>5.23058925038611</v>
       </c>
       <c r="R36">
-        <v>493.1490809476079</v>
+        <v>47.07530325347499</v>
       </c>
       <c r="S36">
-        <v>0.0002152638048481093</v>
+        <v>2.185411130214058E-05</v>
       </c>
       <c r="T36">
-        <v>0.0002619021535382208</v>
+        <v>2.729300333733688E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.450118</v>
+        <v>0.08739166666666666</v>
       </c>
       <c r="H37">
-        <v>1.350354</v>
+        <v>0.262175</v>
       </c>
       <c r="I37">
-        <v>0.001254007906653605</v>
+        <v>0.0002614680533974142</v>
       </c>
       <c r="J37">
-        <v>0.001307336105450162</v>
+        <v>0.0002697530322015679</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>35.84546276279667</v>
+        <v>7.538619043205554</v>
       </c>
       <c r="R37">
-        <v>322.60916486517</v>
+        <v>67.84757138884999</v>
       </c>
       <c r="S37">
-        <v>0.000140821668316412</v>
+        <v>3.149737280985872E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001713316282917931</v>
+        <v>3.933620952743181E-05</v>
       </c>
     </row>
   </sheetData>
